--- a/Decision_table.xlsx
+++ b/Decision_table.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="28800" windowHeight="12465" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
+    <sheet name="2" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="1">Sheet2!$D$4:$IY$11</definedName>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2003" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2364" uniqueCount="39">
   <si>
     <t>判定表</t>
   </si>
@@ -87,10 +88,67 @@
 需求调整：非油活动与优惠券之间，不考虑叠加与否的情况</t>
   </si>
   <si>
+    <t>重复了</t>
+  </si>
+  <si>
+    <t>精简去重</t>
+  </si>
+  <si>
     <t>直降</t>
   </si>
   <si>
     <t>满减/折扣</t>
+  </si>
+  <si>
+    <t>订单细分类型</t>
+  </si>
+  <si>
+    <t>条件桩</t>
+  </si>
+  <si>
+    <t>订单来源</t>
+  </si>
+  <si>
+    <t>公众号</t>
+  </si>
+  <si>
+    <t>POS</t>
+  </si>
+  <si>
+    <t>yypc</t>
+  </si>
+  <si>
+    <t>车牌付</t>
+  </si>
+  <si>
+    <t>物品类型</t>
+  </si>
+  <si>
+    <t>商品</t>
+  </si>
+  <si>
+    <t>油品</t>
+  </si>
+  <si>
+    <t>商品+油品</t>
+  </si>
+  <si>
+    <t>支付方式</t>
+  </si>
+  <si>
+    <t>第三方</t>
+  </si>
+  <si>
+    <t>现金</t>
+  </si>
+  <si>
+    <t>会员卡</t>
+  </si>
+  <si>
+    <t>车队卡</t>
+  </si>
+  <si>
+    <t>积分</t>
   </si>
 </sst>
 </file>
@@ -99,11 +157,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,65 +170,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -195,15 +198,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,11 +252,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -248,11 +291,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -271,6 +336,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -283,19 +390,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -307,13 +432,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -331,79 +468,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,13 +498,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,26 +520,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -465,11 +530,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,24 +575,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -533,6 +586,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,16 +624,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -580,138 +660,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="3">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="6">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -722,6 +805,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1070,23 +1154,33 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A4:AQ81"/>
+  <dimension ref="A4:AQ104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="P79" sqref="P79"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="G103" sqref="G103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="36.875" customWidth="1"/>
-    <col min="3" max="3" width="20.875" customWidth="1"/>
-    <col min="4" max="47" width="2.375" customWidth="1"/>
+    <col min="2" max="2" width="36.25" customWidth="1"/>
+    <col min="3" max="3" width="29.625" customWidth="1"/>
+    <col min="4" max="4" width="2.375" customWidth="1"/>
+    <col min="5" max="7" width="7" customWidth="1"/>
+    <col min="8" max="9" width="2.375" customWidth="1"/>
+    <col min="10" max="11" width="7" customWidth="1"/>
+    <col min="12" max="13" width="2.375" customWidth="1"/>
+    <col min="14" max="15" width="7" customWidth="1"/>
+    <col min="16" max="17" width="2.375" customWidth="1"/>
+    <col min="18" max="23" width="7" customWidth="1"/>
+    <col min="24" max="24" width="2.375" customWidth="1"/>
+    <col min="25" max="42" width="7" customWidth="1"/>
+    <col min="43" max="47" width="2.375" customWidth="1"/>
     <col min="48" max="48" width="22" customWidth="1"/>
     <col min="49" max="979" width="2.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:2">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1856,13 +1950,13 @@
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="29" ht="43" customHeight="1"/>
     <row r="32" spans="2:2">
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2858,7 +2952,7 @@
       </c>
     </row>
     <row r="52" spans="2:2">
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -4845,9 +4939,1082 @@
       </c>
     </row>
     <row r="81" ht="115" customHeight="1" spans="2:2">
-      <c r="B81" s="4" t="s">
+      <c r="B81" s="5" t="s">
         <v>17</v>
       </c>
+    </row>
+    <row r="86" spans="5:42">
+      <c r="E86" t="s">
+        <v>18</v>
+      </c>
+      <c r="F86" t="s">
+        <v>18</v>
+      </c>
+      <c r="G86" t="s">
+        <v>18</v>
+      </c>
+      <c r="J86" t="s">
+        <v>18</v>
+      </c>
+      <c r="K86" t="s">
+        <v>18</v>
+      </c>
+      <c r="N86" t="s">
+        <v>18</v>
+      </c>
+      <c r="O86" t="s">
+        <v>18</v>
+      </c>
+      <c r="R86" t="s">
+        <v>18</v>
+      </c>
+      <c r="S86" t="s">
+        <v>18</v>
+      </c>
+      <c r="T86" t="s">
+        <v>18</v>
+      </c>
+      <c r="U86" t="s">
+        <v>18</v>
+      </c>
+      <c r="V86" t="s">
+        <v>18</v>
+      </c>
+      <c r="W86" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z86" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA86" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB86" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC86" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD86" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE86" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF86" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG86" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH86" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI86" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ86" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK86" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL86" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM86" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN86" t="s">
+        <v>18</v>
+      </c>
+      <c r="AO86" t="s">
+        <v>18</v>
+      </c>
+      <c r="AP86" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" spans="3:42">
+      <c r="C87" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="6"/>
+      <c r="I87" s="6"/>
+      <c r="J87" s="6"/>
+      <c r="K87" s="6"/>
+      <c r="L87" s="6"/>
+      <c r="M87" s="6"/>
+      <c r="N87" s="6"/>
+      <c r="O87" s="6"/>
+      <c r="P87" s="6"/>
+      <c r="Q87" s="6"/>
+      <c r="R87" s="6"/>
+      <c r="S87" s="6"/>
+      <c r="T87" s="6"/>
+      <c r="U87" s="6"/>
+      <c r="V87" s="6"/>
+      <c r="W87" s="6"/>
+      <c r="X87" s="6"/>
+      <c r="Y87" s="6"/>
+      <c r="Z87" s="6"/>
+      <c r="AA87" s="6"/>
+      <c r="AB87" s="6"/>
+      <c r="AC87" s="6"/>
+      <c r="AD87" s="6"/>
+      <c r="AE87" s="6"/>
+      <c r="AF87" s="6"/>
+      <c r="AG87" s="6"/>
+      <c r="AH87" s="6"/>
+      <c r="AI87" s="6"/>
+      <c r="AJ87" s="6"/>
+      <c r="AK87" s="6"/>
+      <c r="AL87" s="6"/>
+      <c r="AM87" s="6"/>
+      <c r="AN87" s="6"/>
+      <c r="AO87" s="6"/>
+      <c r="AP87" s="6"/>
+    </row>
+    <row r="88" spans="3:42">
+      <c r="C88" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G88" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H88" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I88" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J88" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K88" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L88" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M88" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N88" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="O88" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P88" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q88" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="R88" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="S88" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="T88" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="U88" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="V88" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="W88" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="X88" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y88" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z88" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA88" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB88" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC88" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD88" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE88" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF88" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG88" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH88" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI88" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ88" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK88" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL88" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM88" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN88" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO88" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP88" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="3:42">
+      <c r="C89" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G89" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H89" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I89" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J89" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K89" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L89" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M89" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N89" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="O89" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P89" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q89" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R89" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="S89" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="T89" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="U89" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="V89" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="W89" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="X89" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y89" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z89" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA89" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB89" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC89" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD89" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE89" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF89" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG89" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH89" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI89" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ89" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK89" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL89" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM89" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN89" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO89" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP89" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="3:42">
+      <c r="C90" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G90" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H90" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I90" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J90" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K90" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L90" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M90" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="N90" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O90" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="P90" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q90" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="R90" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="S90" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="T90" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="U90" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="V90" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="W90" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="X90" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y90" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z90" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA90" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB90" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC90" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD90" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE90" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF90" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG90" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH90" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI90" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ90" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK90" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL90" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM90" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN90" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO90" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP90" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="3:42">
+      <c r="C91" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G91" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I91" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J91" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K91" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L91" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O91" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="P91" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q91" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R91" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="S91" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="T91" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="U91" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="V91" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="W91" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="X91" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y91" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z91" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA91" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB91" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC91" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD91" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE91" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF91" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG91" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH91" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI91" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ91" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK91" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL91" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM91" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN91" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO91" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP91" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:42">
+      <c r="C92" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G92" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H92" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I92" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J92" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K92" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L92" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M92" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="N92" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="O92" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="P92" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q92" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="R92" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="S92" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="T92" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="U92" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="V92" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="W92" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="X92" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y92" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z92" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA92" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB92" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC92" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD92" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE92" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF92" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG92" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH92" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI92" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ92" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK92" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL92" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM92" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN92" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO92" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP92" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="99" spans="3:42">
+      <c r="C99" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="6"/>
+      <c r="I99" s="6"/>
+      <c r="J99" s="6"/>
+      <c r="K99" s="6"/>
+      <c r="L99" s="6"/>
+      <c r="M99" s="6"/>
+      <c r="N99" s="6"/>
+      <c r="O99" s="6"/>
+      <c r="P99" s="6"/>
+      <c r="Q99" s="6"/>
+      <c r="R99" s="6"/>
+      <c r="S99" s="6"/>
+      <c r="T99" s="6"/>
+      <c r="U99" s="6"/>
+      <c r="V99" s="6"/>
+      <c r="W99" s="6"/>
+      <c r="X99" s="6"/>
+      <c r="Y99" s="6"/>
+      <c r="Z99" s="6"/>
+      <c r="AA99" s="6"/>
+      <c r="AB99" s="6"/>
+      <c r="AC99" s="6"/>
+      <c r="AD99" s="6"/>
+      <c r="AE99" s="6"/>
+      <c r="AF99" s="6"/>
+      <c r="AG99" s="6"/>
+      <c r="AH99" s="6"/>
+      <c r="AI99" s="6"/>
+      <c r="AJ99" s="6"/>
+      <c r="AK99" s="6"/>
+      <c r="AL99" s="6"/>
+      <c r="AM99" s="6"/>
+      <c r="AN99" s="6"/>
+      <c r="AO99" s="6"/>
+      <c r="AP99" s="6"/>
+    </row>
+    <row r="100" spans="3:42">
+      <c r="C100" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F100" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G100" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H100" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I100" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J100" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K100" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="6"/>
+      <c r="O100" s="6"/>
+      <c r="R100" s="6"/>
+      <c r="S100" s="6"/>
+      <c r="T100" s="6"/>
+      <c r="U100" s="6"/>
+      <c r="V100" s="6"/>
+      <c r="W100" s="6"/>
+      <c r="Y100" s="6"/>
+      <c r="Z100" s="6"/>
+      <c r="AA100" s="6"/>
+      <c r="AB100" s="6"/>
+      <c r="AC100" s="6"/>
+      <c r="AD100" s="6"/>
+      <c r="AE100" s="6"/>
+      <c r="AF100" s="6"/>
+      <c r="AG100" s="6"/>
+      <c r="AH100" s="6"/>
+      <c r="AI100" s="6"/>
+      <c r="AJ100" s="6"/>
+      <c r="AK100" s="6"/>
+      <c r="AL100" s="6"/>
+      <c r="AM100" s="6"/>
+      <c r="AN100" s="6"/>
+      <c r="AO100" s="6"/>
+      <c r="AP100" s="6"/>
+    </row>
+    <row r="101" spans="3:42">
+      <c r="C101" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F101" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G101" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H101" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I101" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J101" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K101" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N101" s="6"/>
+      <c r="O101" s="6"/>
+      <c r="R101" s="6"/>
+      <c r="S101" s="6"/>
+      <c r="T101" s="6"/>
+      <c r="U101" s="6"/>
+      <c r="V101" s="6"/>
+      <c r="W101" s="6"/>
+      <c r="Y101" s="6"/>
+      <c r="Z101" s="6"/>
+      <c r="AA101" s="6"/>
+      <c r="AB101" s="6"/>
+      <c r="AC101" s="6"/>
+      <c r="AD101" s="6"/>
+      <c r="AE101" s="6"/>
+      <c r="AF101" s="6"/>
+      <c r="AG101" s="6"/>
+      <c r="AH101" s="6"/>
+      <c r="AI101" s="6"/>
+      <c r="AJ101" s="6"/>
+      <c r="AK101" s="6"/>
+      <c r="AL101" s="6"/>
+      <c r="AM101" s="6"/>
+      <c r="AN101" s="6"/>
+      <c r="AO101" s="6"/>
+      <c r="AP101" s="6"/>
+    </row>
+    <row r="102" spans="3:42">
+      <c r="C102" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E102" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F102" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G102" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H102" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I102" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J102" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K102" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N102" s="6"/>
+      <c r="O102" s="6"/>
+      <c r="R102" s="6"/>
+      <c r="S102" s="6"/>
+      <c r="T102" s="6"/>
+      <c r="U102" s="6"/>
+      <c r="V102" s="6"/>
+      <c r="W102" s="6"/>
+      <c r="Y102" s="6"/>
+      <c r="Z102" s="6"/>
+      <c r="AA102" s="6"/>
+      <c r="AB102" s="6"/>
+      <c r="AC102" s="6"/>
+      <c r="AD102" s="6"/>
+      <c r="AE102" s="6"/>
+      <c r="AF102" s="6"/>
+      <c r="AG102" s="6"/>
+      <c r="AH102" s="6"/>
+      <c r="AI102" s="6"/>
+      <c r="AJ102" s="6"/>
+      <c r="AK102" s="6"/>
+      <c r="AL102" s="6"/>
+      <c r="AM102" s="6"/>
+      <c r="AN102" s="6"/>
+      <c r="AO102" s="6"/>
+      <c r="AP102" s="6"/>
+    </row>
+    <row r="103" spans="3:42">
+      <c r="C103" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E103" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F103" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G103" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H103" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I103" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J103" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K103" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="N103" s="6"/>
+      <c r="O103" s="6"/>
+      <c r="R103" s="6"/>
+      <c r="S103" s="6"/>
+      <c r="T103" s="6"/>
+      <c r="U103" s="6"/>
+      <c r="V103" s="6"/>
+      <c r="W103" s="6"/>
+      <c r="Y103" s="6"/>
+      <c r="Z103" s="6"/>
+      <c r="AA103" s="6"/>
+      <c r="AB103" s="6"/>
+      <c r="AC103" s="6"/>
+      <c r="AD103" s="6"/>
+      <c r="AE103" s="6"/>
+      <c r="AF103" s="6"/>
+      <c r="AG103" s="6"/>
+      <c r="AH103" s="6"/>
+      <c r="AI103" s="6"/>
+      <c r="AJ103" s="6"/>
+      <c r="AK103" s="6"/>
+      <c r="AL103" s="6"/>
+      <c r="AM103" s="6"/>
+      <c r="AN103" s="6"/>
+      <c r="AO103" s="6"/>
+      <c r="AP103" s="6"/>
+    </row>
+    <row r="104" spans="3:42">
+      <c r="C104" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E104" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F104" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G104" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H104" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I104" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J104" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K104" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="N104" s="6"/>
+      <c r="O104" s="6"/>
+      <c r="R104" s="6"/>
+      <c r="S104" s="6"/>
+      <c r="T104" s="6"/>
+      <c r="U104" s="6"/>
+      <c r="V104" s="6"/>
+      <c r="W104" s="6"/>
+      <c r="Y104" s="6"/>
+      <c r="Z104" s="6"/>
+      <c r="AA104" s="6"/>
+      <c r="AB104" s="6"/>
+      <c r="AC104" s="6"/>
+      <c r="AD104" s="6"/>
+      <c r="AE104" s="6"/>
+      <c r="AF104" s="6"/>
+      <c r="AG104" s="6"/>
+      <c r="AH104" s="6"/>
+      <c r="AI104" s="6"/>
+      <c r="AJ104" s="6"/>
+      <c r="AK104" s="6"/>
+      <c r="AL104" s="6"/>
+      <c r="AM104" s="6"/>
+      <c r="AN104" s="6"/>
+      <c r="AO104" s="6"/>
+      <c r="AP104" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6060,19 +7227,19 @@
   </cols>
   <sheetData>
     <row r="6" spans="3:3">
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="3:4">
-      <c r="C8" s="2"/>
+      <c r="C8" s="3"/>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="4:4">
@@ -7311,4 +8478,288 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="D1:AB5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <cols>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="9.375" customWidth="1"/>
+    <col min="6" max="11" width="7.375" customWidth="1"/>
+    <col min="12" max="13" width="10.375" customWidth="1"/>
+    <col min="14" max="16" width="5.375" customWidth="1"/>
+    <col min="17" max="17" width="10.375" customWidth="1"/>
+    <col min="18" max="23" width="7.375" customWidth="1"/>
+    <col min="24" max="25" width="10.375" customWidth="1"/>
+    <col min="26" max="28" width="7.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="14.25" customHeight="1" spans="4:4">
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="14.25" customHeight="1" spans="4:28">
+      <c r="D2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="14.25" customHeight="1" spans="5:28">
+      <c r="E3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="14.25" customHeight="1" spans="5:28">
+      <c r="E4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="18:25">
+      <c r="R5" t="s">
+        <v>38</v>
+      </c>
+      <c r="S5" t="s">
+        <v>38</v>
+      </c>
+      <c r="T5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V5" t="s">
+        <v>38</v>
+      </c>
+      <c r="W5" t="s">
+        <v>38</v>
+      </c>
+      <c r="X5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>